--- a/Upload/MIS_MIA_PANEL.xlsx
+++ b/Upload/MIS_MIA_PANEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BTECH_CSEcore\Projects\pj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BTECH_CSEcore\Projects\pj2\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB573957-C82B-4F64-B38F-23B3688DE4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBBEE92-EEBD-48C5-BF59-75CF14625598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C75CF2E1-CCC8-4150-942A-5D398C8D125D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C75CF2E1-CCC8-4150-942A-5D398C8D125D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="250">
   <si>
     <t>Project Name</t>
   </si>
@@ -788,30 +788,6 @@
   </si>
   <si>
     <t>52273 Dr. S A Amutha Jeevakumari &amp; 53624 Dr. Hemalatha K</t>
-  </si>
-  <si>
-    <t>BHARATH S D</t>
-  </si>
-  <si>
-    <t>DHANUSHKODI S</t>
-  </si>
-  <si>
-    <t>ASHWIN RAJ M</t>
-  </si>
-  <si>
-    <t>NITHISH S</t>
-  </si>
-  <si>
-    <t>VISHNU PRIYA S</t>
-  </si>
-  <si>
-    <t>ADWAITA JHA</t>
-  </si>
-  <si>
-    <t>TANISHA JEFRIN H</t>
-  </si>
-  <si>
-    <t>JITESH K</t>
   </si>
   <si>
     <t>52277 Dr. V Arunkumar &amp; 53626 Dr. Jai Vinita L</t>
@@ -1261,7 +1237,7 @@
   <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+      <selection activeCell="I217" sqref="I217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2948,9 +2924,7 @@
       <c r="B210" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I210" s="3" t="s">
-        <v>249</v>
-      </c>
+      <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
@@ -2959,9 +2933,7 @@
       <c r="B211" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I211" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="I211" s="3"/>
     </row>
     <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
@@ -2970,9 +2942,7 @@
       <c r="B212" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I212" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
@@ -2981,9 +2951,7 @@
       <c r="B213" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I213" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
@@ -2992,9 +2960,7 @@
       <c r="B214" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I214" s="3" t="s">
-        <v>253</v>
-      </c>
+      <c r="I214" s="3"/>
     </row>
     <row r="215" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
@@ -3003,9 +2969,7 @@
       <c r="B215" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I215" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="I215" s="3"/>
     </row>
     <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
@@ -3014,9 +2978,7 @@
       <c r="B216" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I216" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
@@ -3025,16 +2987,14 @@
       <c r="B217" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I217" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3042,7 +3002,7 @@
         <v>228</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3050,7 +3010,7 @@
         <v>229</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3058,7 +3018,7 @@
         <v>230</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3066,7 +3026,7 @@
         <v>231</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3074,7 +3034,7 @@
         <v>232</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3082,7 +3042,7 @@
         <v>99</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -3090,7 +3050,7 @@
         <v>99</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Upload/MIS_MIA_PANEL.xlsx
+++ b/Upload/MIS_MIA_PANEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BTECH_CSEcore\Projects\pj2\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBBEE92-EEBD-48C5-BF59-75CF14625598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689ABC24-EE75-474F-96CD-8B5B34C388FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C75CF2E1-CCC8-4150-942A-5D398C8D125D}"/>
   </bookViews>
@@ -775,9 +775,6 @@
     <t>53638 Dr. Omana J &amp; 52299 Dr. Joe Dhanith P R</t>
   </si>
   <si>
-    <t>50237 Dr. Dr. Saleena B &amp; 52279 Dr. Rama Prabha</t>
-  </si>
-  <si>
     <t>52262 Dr. Mercy Rajaselvi Beaulah P &amp; 53558 Dr. Prabha B</t>
   </si>
   <si>
@@ -791,6 +788,9 @@
   </si>
   <si>
     <t>52277 Dr. V Arunkumar &amp; 53626 Dr. Jai Vinita L</t>
+  </si>
+  <si>
+    <t>50237 Dr.Saleena B &amp; 52279 Dr. Rama Prabha</t>
   </si>
 </sst>
 </file>
@@ -1236,13 +1236,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAC714C-D11E-4E58-BDBE-7A6EE035689D}">
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="I217" sqref="I217"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="65" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+    <col min="1" max="1" width="159.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2666,7 +2666,7 @@
         <v>187</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2674,7 +2674,7 @@
         <v>188</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2682,7 +2682,7 @@
         <v>189</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2690,7 +2690,7 @@
         <v>190</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2698,7 +2698,7 @@
         <v>191</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2706,7 +2706,7 @@
         <v>192</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2714,7 +2714,7 @@
         <v>193</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2722,7 +2722,7 @@
         <v>194</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2730,7 +2730,7 @@
         <v>195</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2738,7 +2738,7 @@
         <v>196</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2746,7 +2746,7 @@
         <v>197</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2754,7 +2754,7 @@
         <v>198</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2762,7 +2762,7 @@
         <v>199</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2770,7 +2770,7 @@
         <v>200</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2778,7 +2778,7 @@
         <v>201</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2786,7 +2786,7 @@
         <v>202</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2794,7 +2794,7 @@
         <v>203</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2802,7 +2802,7 @@
         <v>204</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2810,7 +2810,7 @@
         <v>205</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2818,7 +2818,7 @@
         <v>206</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2826,7 +2826,7 @@
         <v>207</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2834,7 +2834,7 @@
         <v>208</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2842,7 +2842,7 @@
         <v>209</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2850,7 +2850,7 @@
         <v>210</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2858,7 +2858,7 @@
         <v>211</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2866,7 +2866,7 @@
         <v>212</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2874,7 +2874,7 @@
         <v>213</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2882,7 +2882,7 @@
         <v>214</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2890,7 +2890,7 @@
         <v>215</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2898,7 +2898,7 @@
         <v>216</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -2906,7 +2906,7 @@
         <v>217</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -2914,7 +2914,7 @@
         <v>218</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -2922,7 +2922,7 @@
         <v>219</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I210" s="3"/>
     </row>
@@ -2931,7 +2931,7 @@
         <v>220</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I211" s="3"/>
     </row>
@@ -2940,7 +2940,7 @@
         <v>221</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I212" s="3"/>
     </row>
@@ -2949,7 +2949,7 @@
         <v>222</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I213" s="3"/>
     </row>
@@ -2958,7 +2958,7 @@
         <v>223</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I214" s="3"/>
     </row>
@@ -2967,7 +2967,7 @@
         <v>224</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I215" s="3"/>
     </row>
@@ -2976,7 +2976,7 @@
         <v>225</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I216" s="3"/>
     </row>
@@ -2985,7 +2985,7 @@
         <v>226</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I217" s="3"/>
     </row>
@@ -2994,7 +2994,7 @@
         <v>227</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3002,7 +3002,7 @@
         <v>228</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3010,7 +3010,7 @@
         <v>229</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3018,7 +3018,7 @@
         <v>230</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3026,7 +3026,7 @@
         <v>231</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3034,7 +3034,7 @@
         <v>232</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -3042,7 +3042,7 @@
         <v>99</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -3050,7 +3050,7 @@
         <v>99</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
